--- a/input/Financial Statement GPS/Cashflow Statements All-GPS.xlsx
+++ b/input/Financial Statement GPS/Cashflow Statements All-GPS.xlsx
@@ -7,27 +7,31 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Year Ended 2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Q2 2018 (2017)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Q3 2018 (2017)" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Year Ended 2018" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Q1 2019 (2018)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Q2 2019 (2018)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Q3 2019 (2018)" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Year Ended 2019" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Q1 2020 (2019)" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Q2 2020 (2019)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Q3 2020 (2019)" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Year Ended 2020" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Q1 2021 (2020)" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Q2 2021 (2020)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Q3 2021 (2020)" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Year Ended 2021" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Q1 2022 (2021)" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Q2 2022 (2021)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Q3 2022 (2021)" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Year Ended 2022" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Q1 2023 (2022)" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Year Ended 2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q1 2017 (2016)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Q2 2017 (2016)" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Q3 2017 (2016)" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Year Ended 2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q1 2018 (2017)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Q2 2018 (2017)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q3 2018 (2017)" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Year Ended 2018" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q1 2019 (2018)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Q2 2019 (2018)" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Q3 2019 (2018)" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Year Ended 2019" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Q1 2020 (2019)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Q2 2020 (2019)" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Q3 2020 (2019)" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Year Ended 2020" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Q1 2021 (2020)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Q2 2021 (2020)" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Q3 2021 (2020)" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Year Ended 2021" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Q1 2022 (2021)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Q2 2022 (2021)" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Q3 2022 (2021)" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Year Ended 2022" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,6 +449,1650 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 30, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization Lease Incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-726</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale of Property, Plant, and Equipment</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Maturities of short-term investments</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-730</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Proceeds from issuance of short-term debt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Proceeds from issuance of long-term debt</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Payments of long-term debt</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1015</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-377</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-990</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-145</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>May 05, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-309</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-570</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Aug. 04, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Other long-lived asset impairment charges</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-224</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-326</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-322</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-618</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Payments of current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-376</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-459</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Nov. 03, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-696</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-510</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-813</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Payments of current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-564</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-823</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -461,7 +2109,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jan. 28, 2017</t>
+          <t>Feb. 02, 2019</t>
         </is>
       </c>
     </row>
@@ -480,7 +2128,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>676</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="4">
@@ -498,7 +2146,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +2156,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-62</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +2166,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +2176,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -538,7 +2186,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -548,7 +2196,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -558,7 +2206,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +2216,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="13">
@@ -578,7 +2226,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +2244,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>46</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +2254,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="17">
@@ -616,7 +2264,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>146</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +2274,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76</v>
+        <v>-196</v>
       </c>
     </row>
     <row r="19">
@@ -636,7 +2284,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -646,7 +2294,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -656,7 +2304,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1719</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="22">
@@ -674,75 +2322,75 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-524</v>
+        <v>-705</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Proceeds from Sale of Property, Plant, and Equipment</t>
+          <t>Payments to Acquire Short-term Investments</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-464</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Sales and maturities of short-term investments</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
+          <t>Insurance proceeds related to loss on property and equipment</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proceeds from issuance of short-term debt</t>
+          <t>Net cash used for investing activities</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-1001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Payments of short-term debt</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-400</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Payments of long-term debt</t>
+          <t>Payments of debt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +2400,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -762,7 +2410,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-19</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="33">
@@ -772,7 +2420,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-398</v>
       </c>
     </row>
     <row r="34">
@@ -782,7 +2430,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -792,7 +2440,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-367</v>
+        <v>-373</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +2450,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37">
@@ -812,47 +2460,47 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-777</v>
+        <v>-749</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, and Restricted Cash</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Net increase (decrease) in Cash, Cash Equivalents, and Restricted Cash</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>413</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
+          <t>Cash, Cash Equivalents, and Restricted Cash at beginning of period</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1370</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at end of period</t>
+          <t>Cash, Cash Equivalents, and Restricted Cash end of period</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1783</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="42">
@@ -870,7 +2518,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44">
@@ -888,7 +2536,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
@@ -898,7 +2546,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>488</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +2554,449 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>May 04, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Document Period End Date</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>May 4,
+		2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ChangeOperatingLeaseAssetAndLiabilitiesNet</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale of Buildings</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-340</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Payments to Acquire Buildings</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-343</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-462</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Operating Lease, Payments</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1358,7 +3448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1797,7 +3887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2304,7 +4394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2733,7 +4823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3232,7 +5322,404 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apr. 30, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-53</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-140</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-91</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-97</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Net decrease in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3731,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4288,7 +6775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4697,7 +7184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5176,7 +7663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5665,426 +8152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Jul. 29, 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Asset Impairment Charges</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-203</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-49</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-111</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-275</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-219</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Payments of current maturities of debt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-67</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-182</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-449</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-174</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at beginning of period</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cash and cash equivalents at end of period</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6644,435 +8712,6 @@
       </c>
       <c r="B56" t="n">
         <v>1061</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Apr. 30, 2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income (loss)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>-162</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Operating Lease, Impairment Loss</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other Asset Impairment Charges</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Amortization of Debt Issuance Costs</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Disposition of Business</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-166</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-236</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of receivables and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Operating lease assets and liabilities, net</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) operating activities</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-362</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-228</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale of Buildings</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Net cash paid for divestiture activity</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) investing activities</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Proceeds from Lines of Credit</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Net cash provided by (used for) financing activities</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Interest Paid, Excluding Capitalized Interest, Operating Activities</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Cash paid (received) for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>-420</v>
       </c>
     </row>
   </sheetData>
@@ -7102,7 +8741,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oct. 28, 2017</t>
+          <t>Jul. 30, 2016</t>
         </is>
       </c>
     </row>
@@ -7121,7 +8760,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4">
@@ -7139,7 +8778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>418</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
@@ -7149,7 +8788,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="7">
@@ -7159,7 +8798,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -7169,7 +8808,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
@@ -7179,281 +8818,279 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Store asset impairment charges</t>
+          <t>Non-cash and other items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Non-cash and other items</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-50</v>
-      </c>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Merchandise inventory</t>
+          <t>Other current assets and other long-term assets</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-636</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Other current assets and other long-term assets</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Accrued expenses and other current liabilities</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Accrued expenses and other current liabilities</t>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+          <t>Lease incentives and other long-term liabilities</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lease incentives and other long-term liabilities</t>
+          <t>Net cash provided by operating activities</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>600</v>
-      </c>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-270</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Purchases of property and equipment</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-463</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
+          <t>Net cash used for investing activities</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>-271</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-3</v>
-      </c>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Net cash used for investing activities</t>
+          <t>Proceeds from issuances under share-based compensation plans</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-406</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-17</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Payments of current maturities of debt</t>
+          <t>Repurchases of common stock</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
+          <t>Cash dividends paid</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-15</v>
+        <v>-183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Repurchases of common stock</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-300</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+          <t>Net cash used for financing activities</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cash dividends paid</t>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-272</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Net cash used for financing activities</t>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-631</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+          <t>Cash and cash equivalents at beginning of period</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Net increase (decrease) in cash and cash equivalents</t>
+          <t>Cash and cash equivalents at end of period</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-430</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at beginning of period</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1783</v>
-      </c>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents at end of period</t>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1353</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38">
@@ -7471,7 +9108,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -7481,7 +9118,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7490,6 +9127,2117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 29, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-513</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-383</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-384</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Proceeds from Short-term Debt</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jan. 28, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization Lease Incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other Asset Impairment Charges</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Goodwill, Impairment Loss</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-524</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Proceeds from Sale of Property, Plant, and Equipment</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-529</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Proceeds from issuance of short-term debt</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Payments of short-term debt</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Payments of long-term debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-367</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-777</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Non-cash investing activities:</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment not yet paid at end of period</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Apr. 29, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Asset Impairment Charges</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-110</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-96</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Net decrease in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jul. 29, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Asset Impairment Charges</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-203</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-111</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-275</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Payments of current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-449</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Oct. 28, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities:</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Depreciation and amortization</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amortization of lease incentives</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Share-based compensation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Store asset impairment charges</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Non-cash and other items</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Deferred income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Changes in operating assets and liabilities:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Merchandise inventory</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-636</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Other current assets and other long-term assets</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Accrued expenses and other current liabilities</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Income taxes payable, net of prepaid and other tax-related items</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Lease incentives and other long-term liabilities</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Net cash provided by operating activities</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities:</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Purchases of property and equipment</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Insurance proceeds related to loss on property and equipment</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Net cash used for investing activities</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-406</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cash flows from financing activities:</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Payments of current maturities of debt</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Proceeds from issuances under share-based compensation plans</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Withholding tax payments related to vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Repurchases of common stock</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Cash dividends paid</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Net cash used for financing activities</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-631</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Effect of foreign exchange rate fluctuations on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Net increase (decrease) in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-430</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at beginning of period</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at end of period</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Supplemental disclosure of cash flow information:</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Cash paid for interest during the period</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Cash paid for income taxes during the period, net of refunds</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7944,2100 +11692,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>May 05, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-232</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-138</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-167</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-309</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-94</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-193</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-570</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Aug. 04, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Other long-lived asset impairment charges</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-224</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>-326</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-322</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-618</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Payments of current maturities of debt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-188</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-376</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-459</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Nov. 03, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-696</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-64</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-148</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-510</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-408</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-813</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Payments of current maturities of debt</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-281</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-564</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-13</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-823</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Feb. 02, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Amortization Lease Incentives</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>-61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other Asset Impairment Charges</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Goodwill, Impairment Loss</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-154</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>-78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-196</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-705</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-464</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sales and maturities of short-term investments</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Insurance proceeds related to loss on property and equipment</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-1001</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Payments of debt</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-398</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Excess tax benefit from exercise of stock options and vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-373</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-749</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, and Restricted Cash</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Net increase (decrease) in Cash, Cash Equivalents, and Restricted Cash</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>-379</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, and Restricted Cash at beginning of period</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, and Restricted Cash end of period</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Non-cash investing activities:</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment not yet paid at end of period</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>May 04, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Document Period End Date</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>May 4,
-		2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cash flows from operating activities:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Adjustments to reconcile net income to net cash provided by operating activities:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Depreciation and amortization</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Amortization of lease incentives</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Share-based compensation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Non-cash and other items</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Gain (Loss) on Disposition of Property Plant Equipment</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-191</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Deferred income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Changes in operating assets and liabilities:</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Merchandise inventory</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Other current assets and other long-term assets</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>-25</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Accrued expenses and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>-37</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Income taxes payable, net of prepaid and other tax-related items</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Lease incentives and other long-term liabilities</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ChangeOperatingLeaseAssetAndLiabilitiesNet</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Net cash provided by operating activities</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Cash flows from investing activities:</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale of Buildings</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Purchases of property and equipment</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Proceeds from Sale, Maturity and Collection of Short-term Investments</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Businesses, Net of Cash Acquired</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-69</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Net cash used for investing activities</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-340</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Payments to Acquire Buildings</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-343</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Cash flows from financing activities:</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Proceeds from issuances under share-based compensation plans</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Withholding tax payments related to vesting of stock units</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Repurchases of common stock</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Cash dividends paid</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-92</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Net cash used for financing activities</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-151</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Effect of Exchange Rate on Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents, Period Increase (Decrease), Including Exchange Rate Effect</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-462</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents beginning of period</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Cash, Cash Equivalents, Restricted Cash and Restricted Cash Equivalents end of period</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Supplemental disclosure of cash flow information:</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Cash paid for interest during the period</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Cash paid for income taxes during the period, net of refunds</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Operating Lease, Payments</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>